--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>3.732572</v>
       </c>
       <c r="I2">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J2">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.76000950000001</v>
+        <v>80.23867799999999</v>
       </c>
       <c r="N2">
-        <v>125.520019</v>
+        <v>160.477356</v>
       </c>
       <c r="O2">
-        <v>0.06278706762865262</v>
+        <v>0.07000477231052735</v>
       </c>
       <c r="P2">
-        <v>0.0435633878233016</v>
+        <v>0.04876678230537618</v>
       </c>
       <c r="Q2">
-        <v>78.08541805981135</v>
+        <v>99.83221427327199</v>
       </c>
       <c r="R2">
-        <v>468.5125083588681</v>
+        <v>598.9932856396319</v>
       </c>
       <c r="S2">
-        <v>0.03072777074433249</v>
+        <v>0.04291094493331787</v>
       </c>
       <c r="T2">
-        <v>0.02376118700726315</v>
+        <v>0.03366491575022333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>3.732572</v>
       </c>
       <c r="I3">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J3">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>228.764435</v>
       </c>
       <c r="O3">
-        <v>0.07628768789662417</v>
+        <v>0.06652902143162361</v>
       </c>
       <c r="P3">
-        <v>0.07939573210296813</v>
+        <v>0.06951825278612753</v>
       </c>
       <c r="Q3">
         <v>94.87552496409111</v>
       </c>
       <c r="R3">
-        <v>853.87972467682</v>
+        <v>853.8797246768199</v>
       </c>
       <c r="S3">
-        <v>0.03733492696564336</v>
+        <v>0.04078040797642329</v>
       </c>
       <c r="T3">
-        <v>0.04330555845953064</v>
+        <v>0.0479901689738859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>3.732572</v>
       </c>
       <c r="I4">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J4">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>371.029597</v>
+        <v>285.271759</v>
       </c>
       <c r="N4">
-        <v>1113.088791</v>
+        <v>855.815277</v>
       </c>
       <c r="O4">
-        <v>0.3711895613889403</v>
+        <v>0.2488872577813238</v>
       </c>
       <c r="P4">
-        <v>0.3863122318687898</v>
+        <v>0.2600700706152849</v>
       </c>
       <c r="Q4">
-        <v>461.6315616444947</v>
+        <v>354.9324600113827</v>
       </c>
       <c r="R4">
-        <v>4154.684054800453</v>
+        <v>3194.392140102444</v>
       </c>
       <c r="S4">
-        <v>0.1816588698250288</v>
+        <v>0.152560847793127</v>
       </c>
       <c r="T4">
-        <v>0.2107099021283566</v>
+        <v>0.1795328008641858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>3.732572</v>
       </c>
       <c r="I5">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J5">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.62809350000001</v>
+        <v>67.61701550000001</v>
       </c>
       <c r="N5">
-        <v>109.256187</v>
+        <v>135.234031</v>
       </c>
       <c r="O5">
-        <v>0.05465164566313296</v>
+        <v>0.05899291828306169</v>
       </c>
       <c r="P5">
-        <v>0.03791880916123955</v>
+        <v>0.04109569545784076</v>
       </c>
       <c r="Q5">
-        <v>67.96776407049401</v>
+        <v>84.12845959295534</v>
       </c>
       <c r="R5">
-        <v>407.8065844229641</v>
+        <v>504.7707575577321</v>
       </c>
       <c r="S5">
-        <v>0.02674632376000452</v>
+        <v>0.03616098994895955</v>
       </c>
       <c r="T5">
-        <v>0.02068241155227608</v>
+        <v>0.02836937480561489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>3.732572</v>
       </c>
       <c r="I6">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J6">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.39271299999999</v>
+        <v>236.825536</v>
       </c>
       <c r="N6">
-        <v>154.178139</v>
+        <v>710.4766079999999</v>
       </c>
       <c r="O6">
-        <v>0.05141487027262056</v>
+        <v>0.2066200258807679</v>
       </c>
       <c r="P6">
-        <v>0.05350956856636471</v>
+        <v>0.2159037196213408</v>
       </c>
       <c r="Q6">
-        <v>63.94233384927866</v>
+        <v>294.6561215195306</v>
       </c>
       <c r="R6">
-        <v>575.481004643508</v>
+        <v>2651.905093675776</v>
       </c>
       <c r="S6">
-        <v>0.02516225723313945</v>
+        <v>0.1266522304131119</v>
       </c>
       <c r="T6">
-        <v>0.02918622561083911</v>
+        <v>0.14904367660958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>3.732572</v>
       </c>
       <c r="I7">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J7">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>383.5038246666667</v>
+        <v>399.980886</v>
       </c>
       <c r="N7">
-        <v>1150.511474</v>
+        <v>1199.942658</v>
       </c>
       <c r="O7">
-        <v>0.3836691671500295</v>
+        <v>0.3489660043126957</v>
       </c>
       <c r="P7">
-        <v>0.3993002704773362</v>
+        <v>0.3646454792140298</v>
       </c>
       <c r="Q7">
-        <v>477.1518792812365</v>
+        <v>497.652485206264</v>
       </c>
       <c r="R7">
-        <v>4294.366913531128</v>
+        <v>4478.872366856375</v>
       </c>
       <c r="S7">
-        <v>0.1877663451267007</v>
+        <v>0.2139062881061637</v>
       </c>
       <c r="T7">
-        <v>0.2177940897835267</v>
+        <v>0.2517237914031252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H8">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I8">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J8">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.76000950000001</v>
+        <v>80.23867799999999</v>
       </c>
       <c r="N8">
-        <v>125.520019</v>
+        <v>160.477356</v>
       </c>
       <c r="O8">
-        <v>0.06278706762865262</v>
+        <v>0.07000477231052735</v>
       </c>
       <c r="P8">
-        <v>0.0435633878233016</v>
+        <v>0.04876678230537618</v>
       </c>
       <c r="Q8">
-        <v>15.547662673454</v>
+        <v>54.748896085689</v>
       </c>
       <c r="R8">
-        <v>93.28597604072401</v>
+        <v>218.995584342756</v>
       </c>
       <c r="S8">
-        <v>0.006118235979401048</v>
+        <v>0.0235327532519924</v>
       </c>
       <c r="T8">
-        <v>0.004731112792747185</v>
+        <v>0.01230809772549813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H9">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I9">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J9">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>228.764435</v>
       </c>
       <c r="O9">
-        <v>0.07628768789662417</v>
+        <v>0.06652902143162361</v>
       </c>
       <c r="P9">
-        <v>0.07939573210296813</v>
+        <v>0.06951825278612753</v>
       </c>
       <c r="Q9">
-        <v>18.89075700380667</v>
+        <v>52.03060249786417</v>
       </c>
       <c r="R9">
-        <v>170.01681303426</v>
+        <v>312.183614987185</v>
       </c>
       <c r="S9">
-        <v>0.00743379320778227</v>
+        <v>0.02236434736909322</v>
       </c>
       <c r="T9">
-        <v>0.008622611385631496</v>
+        <v>0.0175454973354519</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H10">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I10">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J10">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>371.029597</v>
+        <v>285.271759</v>
       </c>
       <c r="N10">
-        <v>1113.088791</v>
+        <v>855.815277</v>
       </c>
       <c r="O10">
-        <v>0.3711895613889403</v>
+        <v>0.2488872577813238</v>
       </c>
       <c r="P10">
-        <v>0.3863122318687898</v>
+        <v>0.2600700706152849</v>
       </c>
       <c r="Q10">
-        <v>91.915904124004</v>
+        <v>194.6481955955545</v>
       </c>
       <c r="R10">
-        <v>827.2431371160361</v>
+        <v>1167.889173573327</v>
       </c>
       <c r="S10">
-        <v>0.03617027224618363</v>
+        <v>0.08366575922784823</v>
       </c>
       <c r="T10">
-        <v>0.04195465122231696</v>
+        <v>0.06563828272625739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H11">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I11">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J11">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.62809350000001</v>
+        <v>67.61701550000001</v>
       </c>
       <c r="N11">
-        <v>109.256187</v>
+        <v>135.234031</v>
       </c>
       <c r="O11">
-        <v>0.05465164566313296</v>
+        <v>0.05899291828306169</v>
       </c>
       <c r="P11">
-        <v>0.03791880916123955</v>
+        <v>0.04109569545784076</v>
       </c>
       <c r="Q11">
-        <v>13.533126858942</v>
+        <v>46.13681390954526</v>
       </c>
       <c r="R11">
-        <v>81.198761153652</v>
+        <v>184.547255638181</v>
       </c>
       <c r="S11">
-        <v>0.005325486241964073</v>
+        <v>0.01983101642573979</v>
       </c>
       <c r="T11">
-        <v>0.004118094851487225</v>
+        <v>0.0103720157837162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H12">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I12">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J12">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.39271299999999</v>
+        <v>236.825536</v>
       </c>
       <c r="N12">
-        <v>154.178139</v>
+        <v>710.4766079999999</v>
       </c>
       <c r="O12">
-        <v>0.05141487027262056</v>
+        <v>0.2066200258807679</v>
       </c>
       <c r="P12">
-        <v>0.05350956856636471</v>
+        <v>0.2159037196213408</v>
       </c>
       <c r="Q12">
-        <v>12.731619576916</v>
+        <v>161.592102263968</v>
       </c>
       <c r="R12">
-        <v>114.584576192244</v>
+        <v>969.552613583808</v>
       </c>
       <c r="S12">
-        <v>0.005010081232630022</v>
+        <v>0.06945723734953414</v>
       </c>
       <c r="T12">
-        <v>0.005811297445587971</v>
+        <v>0.05449127366570291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H13">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I13">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J13">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>383.5038246666667</v>
+        <v>399.980886</v>
       </c>
       <c r="N13">
-        <v>1150.511474</v>
+        <v>1199.942658</v>
       </c>
       <c r="O13">
-        <v>0.3836691671500295</v>
+        <v>0.3489660043126957</v>
       </c>
       <c r="P13">
-        <v>0.3993002704773362</v>
+        <v>0.3646454792140298</v>
       </c>
       <c r="Q13">
-        <v>95.00616949232267</v>
+        <v>272.917158030393</v>
       </c>
       <c r="R13">
-        <v>855.055525430904</v>
+        <v>1637.502948182358</v>
       </c>
       <c r="S13">
-        <v>0.03738633752618395</v>
+        <v>0.117308157740975</v>
       </c>
       <c r="T13">
-        <v>0.04336519063818673</v>
+        <v>0.09203174745512376</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H14">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I14">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J14">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.76000950000001</v>
+        <v>80.23867799999999</v>
       </c>
       <c r="N14">
-        <v>125.520019</v>
+        <v>160.477356</v>
       </c>
       <c r="O14">
-        <v>0.06278706762865262</v>
+        <v>0.07000477231052735</v>
       </c>
       <c r="P14">
-        <v>0.0435633878233016</v>
+        <v>0.04876678230537618</v>
       </c>
       <c r="Q14">
-        <v>49.18178730466076</v>
+        <v>8.284830727081999</v>
       </c>
       <c r="R14">
-        <v>196.727149218643</v>
+        <v>49.708984362492</v>
       </c>
       <c r="S14">
-        <v>0.01935376313073669</v>
+        <v>0.003561074125217075</v>
       </c>
       <c r="T14">
-        <v>0.00997725887482479</v>
+        <v>0.002793768829654707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H15">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I15">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J15">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>228.764435</v>
       </c>
       <c r="O15">
-        <v>0.07628768789662417</v>
+        <v>0.06652902143162361</v>
       </c>
       <c r="P15">
-        <v>0.07939573210296813</v>
+        <v>0.06951825278612753</v>
       </c>
       <c r="Q15">
-        <v>59.75696878036583</v>
+        <v>7.873487232477222</v>
       </c>
       <c r="R15">
-        <v>358.541812682195</v>
+        <v>70.861385092295</v>
       </c>
       <c r="S15">
-        <v>0.02351525397037429</v>
+        <v>0.0033842660861071</v>
       </c>
       <c r="T15">
-        <v>0.01818388817602098</v>
+        <v>0.003982586476789725</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H16">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I16">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J16">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>371.029597</v>
+        <v>285.271759</v>
       </c>
       <c r="N16">
-        <v>1113.088791</v>
+        <v>855.815277</v>
       </c>
       <c r="O16">
-        <v>0.3711895613889403</v>
+        <v>0.2488872577813238</v>
       </c>
       <c r="P16">
-        <v>0.3863122318687898</v>
+        <v>0.2600700706152849</v>
       </c>
       <c r="Q16">
-        <v>290.7567871446545</v>
+        <v>29.45497475085434</v>
       </c>
       <c r="R16">
-        <v>1744.540722867927</v>
+        <v>265.094772757689</v>
       </c>
       <c r="S16">
-        <v>0.1144171103866817</v>
+        <v>0.01266065076034854</v>
       </c>
       <c r="T16">
-        <v>0.08847652435802091</v>
+        <v>0.01489898702484174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H17">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I17">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J17">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.62809350000001</v>
+        <v>67.61701550000001</v>
       </c>
       <c r="N17">
-        <v>109.256187</v>
+        <v>135.234031</v>
       </c>
       <c r="O17">
-        <v>0.05465164566313296</v>
+        <v>0.05899291828306169</v>
       </c>
       <c r="P17">
-        <v>0.03791880916123955</v>
+        <v>0.04109569545784076</v>
       </c>
       <c r="Q17">
-        <v>42.80922352913475</v>
+        <v>6.981614623411168</v>
       </c>
       <c r="R17">
-        <v>171.236894116539</v>
+        <v>41.889687740467</v>
       </c>
       <c r="S17">
-        <v>0.01684606472028556</v>
+        <v>0.003000911908362348</v>
       </c>
       <c r="T17">
-        <v>0.008684489295490521</v>
+        <v>0.002354304868509664</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H18">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I18">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J18">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.39271299999999</v>
+        <v>236.825536</v>
       </c>
       <c r="N18">
-        <v>154.178139</v>
+        <v>710.4766079999999</v>
       </c>
       <c r="O18">
-        <v>0.05141487027262056</v>
+        <v>0.2066200258807679</v>
       </c>
       <c r="P18">
-        <v>0.05350956856636471</v>
+        <v>0.2159037196213408</v>
       </c>
       <c r="Q18">
-        <v>40.2738224533805</v>
+        <v>24.45278918491733</v>
       </c>
       <c r="R18">
-        <v>241.642934720283</v>
+        <v>220.075102664256</v>
       </c>
       <c r="S18">
-        <v>0.01584834677324152</v>
+        <v>0.01051055811812185</v>
       </c>
       <c r="T18">
-        <v>0.012255218075148</v>
+        <v>0.01236876934605781</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H19">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I19">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J19">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>383.5038246666667</v>
+        <v>399.980886</v>
       </c>
       <c r="N19">
-        <v>1150.511474</v>
+        <v>1199.942658</v>
       </c>
       <c r="O19">
-        <v>0.3836691671500295</v>
+        <v>0.3489660043126957</v>
       </c>
       <c r="P19">
-        <v>0.3993002704773362</v>
+        <v>0.3646454792140298</v>
       </c>
       <c r="Q19">
-        <v>300.5321969442963</v>
+        <v>41.298959768234</v>
       </c>
       <c r="R19">
-        <v>1803.193181665778</v>
+        <v>371.690637914106</v>
       </c>
       <c r="S19">
-        <v>0.1182638792036869</v>
+        <v>0.01775155846555698</v>
       </c>
       <c r="T19">
-        <v>0.0914511558076983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.149396</v>
-      </c>
-      <c r="I20">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J20">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>62.76000950000001</v>
-      </c>
-      <c r="N20">
-        <v>125.520019</v>
-      </c>
-      <c r="O20">
-        <v>0.06278706762865262</v>
-      </c>
-      <c r="P20">
-        <v>0.0435633878233016</v>
-      </c>
-      <c r="Q20">
-        <v>3.125364793087334</v>
-      </c>
-      <c r="R20">
-        <v>18.752188758524</v>
-      </c>
-      <c r="S20">
-        <v>0.001229877424499861</v>
-      </c>
-      <c r="T20">
-        <v>0.0009510402730709779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.149396</v>
-      </c>
-      <c r="I21">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J21">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>76.25481166666667</v>
-      </c>
-      <c r="N21">
-        <v>228.764435</v>
-      </c>
-      <c r="O21">
-        <v>0.07628768789662417</v>
-      </c>
-      <c r="P21">
-        <v>0.07939573210296813</v>
-      </c>
-      <c r="Q21">
-        <v>3.797387947917778</v>
-      </c>
-      <c r="R21">
-        <v>34.17649153126</v>
-      </c>
-      <c r="S21">
-        <v>0.001494328508320604</v>
-      </c>
-      <c r="T21">
-        <v>0.001733302723060677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.149396</v>
-      </c>
-      <c r="I22">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J22">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>371.029597</v>
-      </c>
-      <c r="N22">
-        <v>1113.088791</v>
-      </c>
-      <c r="O22">
-        <v>0.3711895613889403</v>
-      </c>
-      <c r="P22">
-        <v>0.3863122318687898</v>
-      </c>
-      <c r="Q22">
-        <v>18.47677922447067</v>
-      </c>
-      <c r="R22">
-        <v>166.291013020236</v>
-      </c>
-      <c r="S22">
-        <v>0.007270886808447367</v>
-      </c>
-      <c r="T22">
-        <v>0.008433652864129065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.149396</v>
-      </c>
-      <c r="I23">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J23">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>54.62809350000001</v>
-      </c>
-      <c r="N23">
-        <v>109.256187</v>
-      </c>
-      <c r="O23">
-        <v>0.05465164566313296</v>
-      </c>
-      <c r="P23">
-        <v>0.03791880916123955</v>
-      </c>
-      <c r="Q23">
-        <v>2.720406218842</v>
-      </c>
-      <c r="R23">
-        <v>16.322437313052</v>
-      </c>
-      <c r="S23">
-        <v>0.001070520216207386</v>
-      </c>
-      <c r="T23">
-        <v>0.0008278124457515723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.149396</v>
-      </c>
-      <c r="I24">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J24">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>51.39271299999999</v>
-      </c>
-      <c r="N24">
-        <v>154.178139</v>
-      </c>
-      <c r="O24">
-        <v>0.05141487027262056</v>
-      </c>
-      <c r="P24">
-        <v>0.05350956856636471</v>
-      </c>
-      <c r="Q24">
-        <v>2.559288583782666</v>
-      </c>
-      <c r="R24">
-        <v>23.033597254044</v>
-      </c>
-      <c r="S24">
-        <v>0.001007118035928604</v>
-      </c>
-      <c r="T24">
-        <v>0.001168177160777319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.149396</v>
-      </c>
-      <c r="I25">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J25">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>383.5038246666667</v>
-      </c>
-      <c r="N25">
-        <v>1150.511474</v>
-      </c>
-      <c r="O25">
-        <v>0.3836691671500295</v>
-      </c>
-      <c r="P25">
-        <v>0.3993002704773362</v>
-      </c>
-      <c r="Q25">
-        <v>19.09797912996711</v>
-      </c>
-      <c r="R25">
-        <v>171.881812169704</v>
-      </c>
-      <c r="S25">
-        <v>0.007515338189470581</v>
-      </c>
-      <c r="T25">
-        <v>0.008717197106258033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.216926</v>
-      </c>
-      <c r="H26">
-        <v>0.650778</v>
-      </c>
-      <c r="I26">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J26">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>62.76000950000001</v>
-      </c>
-      <c r="N26">
-        <v>125.520019</v>
-      </c>
-      <c r="O26">
-        <v>0.06278706762865262</v>
-      </c>
-      <c r="P26">
-        <v>0.0435633878233016</v>
-      </c>
-      <c r="Q26">
-        <v>13.614277820797</v>
-      </c>
-      <c r="R26">
-        <v>81.68566692478201</v>
-      </c>
-      <c r="S26">
-        <v>0.005357420349682526</v>
-      </c>
-      <c r="T26">
-        <v>0.004142788875395492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.216926</v>
-      </c>
-      <c r="H27">
-        <v>0.650778</v>
-      </c>
-      <c r="I27">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J27">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>76.25481166666667</v>
-      </c>
-      <c r="N27">
-        <v>228.764435</v>
-      </c>
-      <c r="O27">
-        <v>0.07628768789662417</v>
-      </c>
-      <c r="P27">
-        <v>0.07939573210296813</v>
-      </c>
-      <c r="Q27">
-        <v>16.54165127560333</v>
-      </c>
-      <c r="R27">
-        <v>148.87486148043</v>
-      </c>
-      <c r="S27">
-        <v>0.006509385244503643</v>
-      </c>
-      <c r="T27">
-        <v>0.007550371358724339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.216926</v>
-      </c>
-      <c r="H28">
-        <v>0.650778</v>
-      </c>
-      <c r="I28">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J28">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>371.029597</v>
-      </c>
-      <c r="N28">
-        <v>1113.088791</v>
-      </c>
-      <c r="O28">
-        <v>0.3711895613889403</v>
-      </c>
-      <c r="P28">
-        <v>0.3863122318687898</v>
-      </c>
-      <c r="Q28">
-        <v>80.485966358822</v>
-      </c>
-      <c r="R28">
-        <v>724.3736972293981</v>
-      </c>
-      <c r="S28">
-        <v>0.03167242212259874</v>
-      </c>
-      <c r="T28">
-        <v>0.03673750129596632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.216926</v>
-      </c>
-      <c r="H29">
-        <v>0.650778</v>
-      </c>
-      <c r="I29">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J29">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>54.62809350000001</v>
-      </c>
-      <c r="N29">
-        <v>109.256187</v>
-      </c>
-      <c r="O29">
-        <v>0.05465164566313296</v>
-      </c>
-      <c r="P29">
-        <v>0.03791880916123955</v>
-      </c>
-      <c r="Q29">
-        <v>11.850253810581</v>
-      </c>
-      <c r="R29">
-        <v>71.10152286348601</v>
-      </c>
-      <c r="S29">
-        <v>0.004663250724671412</v>
-      </c>
-      <c r="T29">
-        <v>0.003606001016234148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.216926</v>
-      </c>
-      <c r="H30">
-        <v>0.650778</v>
-      </c>
-      <c r="I30">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J30">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>51.39271299999999</v>
-      </c>
-      <c r="N30">
-        <v>154.178139</v>
-      </c>
-      <c r="O30">
-        <v>0.05141487027262056</v>
-      </c>
-      <c r="P30">
-        <v>0.05350956856636471</v>
-      </c>
-      <c r="Q30">
-        <v>11.148415660238</v>
-      </c>
-      <c r="R30">
-        <v>100.335740942142</v>
-      </c>
-      <c r="S30">
-        <v>0.004387066997680962</v>
-      </c>
-      <c r="T30">
-        <v>0.005088650274012304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.216926</v>
-      </c>
-      <c r="H31">
-        <v>0.650778</v>
-      </c>
-      <c r="I31">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J31">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>383.5038246666667</v>
-      </c>
-      <c r="N31">
-        <v>1150.511474</v>
-      </c>
-      <c r="O31">
-        <v>0.3836691671500295</v>
-      </c>
-      <c r="P31">
-        <v>0.3993002704773362</v>
-      </c>
-      <c r="Q31">
-        <v>83.19195066964134</v>
-      </c>
-      <c r="R31">
-        <v>748.727556026772</v>
-      </c>
-      <c r="S31">
-        <v>0.03273726710398729</v>
-      </c>
-      <c r="T31">
-        <v>0.03797263714166638</v>
+        <v>0.02088994035578091</v>
       </c>
     </row>
   </sheetData>
